--- a/DFT Calculations/gp_start_folder_empty/pyrdz_properties_postprocessed_for_pyrdz1_to_pyrdz3.xlsx
+++ b/DFT Calculations/gp_start_folder_empty/pyrdz_properties_postprocessed_for_pyrdz1_to_pyrdz3.xlsx
@@ -1566,8 +1566,7 @@
     <col min="22" max="22" width="24.7109375" customWidth="1"/>
     <col min="23" max="23" width="21.7109375" customWidth="1"/>
     <col min="24" max="24" width="18.7109375" customWidth="1"/>
-    <col min="25" max="25" width="20.7109375" customWidth="1"/>
-    <col min="26" max="27" width="21.7109375" customWidth="1"/>
+    <col min="25" max="27" width="21.7109375" customWidth="1"/>
     <col min="28" max="28" width="20.7109375" customWidth="1"/>
     <col min="29" max="29" width="21.7109375" customWidth="1"/>
     <col min="30" max="31" width="18.7109375" customWidth="1"/>
@@ -3071,7 +3070,7 @@
         <v>337.1670357775124</v>
       </c>
       <c r="Y10">
-        <v>0.9357989781569834</v>
+        <v>0.9357989781569833</v>
       </c>
       <c r="Z10">
         <v>-0.63618</v>
@@ -3211,7 +3210,7 @@
         <v>337.1670357775124</v>
       </c>
       <c r="Y11">
-        <v>0.9357989781569834</v>
+        <v>0.9357989781569833</v>
       </c>
       <c r="Z11">
         <v>-0.63618</v>
@@ -3491,7 +3490,7 @@
         <v>337.1670357775124</v>
       </c>
       <c r="Y13">
-        <v>0.9357989781569834</v>
+        <v>0.9357989781569833</v>
       </c>
       <c r="Z13">
         <v>-0.63618</v>
@@ -3631,7 +3630,7 @@
         <v>337.1670357775124</v>
       </c>
       <c r="Y14">
-        <v>0.9357989781569834</v>
+        <v>0.9357989781569833</v>
       </c>
       <c r="Z14">
         <v>-0.63618</v>
@@ -3947,7 +3946,7 @@
         <v>337.1670357775124</v>
       </c>
       <c r="Y16">
-        <v>0.9357989781569834</v>
+        <v>0.9357989781569833</v>
       </c>
       <c r="Z16">
         <v>-0.63618</v>
@@ -4123,7 +4122,7 @@
         <v>337.1670357775124</v>
       </c>
       <c r="Y17">
-        <v>0.9357989781569834</v>
+        <v>0.9357989781569833</v>
       </c>
       <c r="Z17">
         <v>-0.63618</v>
@@ -4299,7 +4298,7 @@
         <v>387.6564013980003</v>
       </c>
       <c r="Y18">
-        <v>0.9176496491151052</v>
+        <v>0.9176496491151053</v>
       </c>
       <c r="Z18">
         <v>-0.42954</v>
@@ -4377,7 +4376,7 @@
         <v>3.271551422186657</v>
       </c>
       <c r="AY18">
-        <v>5.855211771907142</v>
+        <v>5.855211771907148</v>
       </c>
       <c r="AZ18">
         <v>0.7942129207217251</v>
@@ -4651,7 +4650,7 @@
         <v>384.397518061005</v>
       </c>
       <c r="Y20">
-        <v>0.9200524380330758</v>
+        <v>0.9200524380330757</v>
       </c>
       <c r="Z20">
         <v>-0.43427</v>
@@ -4733,9 +4732,6 @@
       </c>
       <c r="AZ20">
         <v>0.8391109953942257</v>
-      </c>
-      <c r="BA20">
-        <v>0</v>
       </c>
       <c r="BB20">
         <v>6.290374186580857E-11</v>
@@ -4791,7 +4787,7 @@
         <v>386.2343851103017</v>
       </c>
       <c r="Y21">
-        <v>0.9181319683473086</v>
+        <v>0.9181319683473088</v>
       </c>
       <c r="Z21">
         <v>-0.4315871054963381</v>
@@ -4869,7 +4865,7 @@
         <v>3.261610422081477</v>
       </c>
       <c r="AY21">
-        <v>6.09132555757542</v>
+        <v>6.091325557575422</v>
       </c>
       <c r="AZ21">
         <v>0.8172726213254111</v>
@@ -4931,7 +4927,7 @@
         <v>1.684026277917818</v>
       </c>
       <c r="Y22">
-        <v>0.001590395597508763</v>
+        <v>0.001590395597508682</v>
       </c>
       <c r="Z22">
         <v>0.002440860692656249</v>
@@ -5009,13 +5005,10 @@
         <v>0.01165990412287044</v>
       </c>
       <c r="AY22">
-        <v>0.2552933011465749</v>
+        <v>0.2552933011465718</v>
       </c>
       <c r="AZ22">
         <v>0.02491984236153126</v>
-      </c>
-      <c r="BA22">
-        <v>0.1123848415555819</v>
       </c>
       <c r="BB22">
         <v>0.01687290000787018</v>
@@ -5149,13 +5142,13 @@
         <v>3.249041145856651</v>
       </c>
       <c r="AY23">
-        <v>5.855211771907142</v>
+        <v>5.855211771907148</v>
       </c>
       <c r="AZ23">
         <v>0.7942129207217251</v>
       </c>
       <c r="BA23">
-        <v>0</v>
+        <v>5.020508817964519E-05</v>
       </c>
       <c r="BB23">
         <v>6.290374186580857E-11</v>
@@ -5211,7 +5204,7 @@
         <v>387.6564013980003</v>
       </c>
       <c r="Y24">
-        <v>0.9200524380330758</v>
+        <v>0.9200524380330757</v>
       </c>
       <c r="Z24">
         <v>-0.42954</v>
@@ -5351,7 +5344,7 @@
         <v>3.258883336995325</v>
       </c>
       <c r="Y25">
-        <v>0.003260313017418026</v>
+        <v>0.003260313017417915</v>
       </c>
       <c r="Z25">
         <v>0.004730000000000012</v>
@@ -5429,13 +5422,13 @@
         <v>0.02251027633000602</v>
       </c>
       <c r="AY25">
-        <v>0.4605185965779963</v>
+        <v>0.460518596577991</v>
       </c>
       <c r="AZ25">
         <v>0.04489807467250062</v>
       </c>
       <c r="BA25">
-        <v>0.1853500878363744</v>
+        <v>0.1852998827481948</v>
       </c>
       <c r="BB25">
         <v>0.02782754494223695</v>
@@ -5527,7 +5520,7 @@
         <v>387.6564013980003</v>
       </c>
       <c r="Y26">
-        <v>0.9176496491151052</v>
+        <v>0.9176496491151053</v>
       </c>
       <c r="Z26">
         <v>-0.42954</v>
@@ -5605,7 +5598,7 @@
         <v>3.271551422186657</v>
       </c>
       <c r="AY26">
-        <v>5.855211771907142</v>
+        <v>5.855211771907148</v>
       </c>
       <c r="AZ26">
         <v>0.7942129207217251</v>
@@ -5703,7 +5696,7 @@
         <v>384.397518061005</v>
       </c>
       <c r="Y27">
-        <v>0.9200524380330758</v>
+        <v>0.9200524380330757</v>
       </c>
       <c r="Z27">
         <v>-0.43427</v>
@@ -5785,9 +5778,6 @@
       </c>
       <c r="AZ27">
         <v>0.8391109953942257</v>
-      </c>
-      <c r="BA27">
-        <v>0</v>
       </c>
       <c r="BB27">
         <v>6.290374186580857E-11</v>
@@ -8189,25 +8179,25 @@
         <v>337.1670357775124</v>
       </c>
       <c r="CA3">
-        <v>0.9357989781569834</v>
+        <v>0.9357989781569833</v>
       </c>
       <c r="CB3">
         <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.9357989781569834</v>
+        <v>0.9357989781569833</v>
       </c>
       <c r="CD3">
-        <v>0.9357989781569834</v>
+        <v>0.9357989781569833</v>
       </c>
       <c r="CE3">
         <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.9357989781569834</v>
+        <v>0.9357989781569833</v>
       </c>
       <c r="CG3">
-        <v>0.9357989781569834</v>
+        <v>0.9357989781569833</v>
       </c>
       <c r="CH3">
         <v>-0.63618</v>
@@ -9139,25 +9129,25 @@
         <v>384.397518061005</v>
       </c>
       <c r="CA4">
-        <v>0.9181319683473086</v>
+        <v>0.9181319683473088</v>
       </c>
       <c r="CB4">
-        <v>0.001590395597508763</v>
+        <v>0.001590395597508682</v>
       </c>
       <c r="CC4">
         <v>0.9167921250156578</v>
       </c>
       <c r="CD4">
-        <v>0.9200524380330758</v>
+        <v>0.9200524380330757</v>
       </c>
       <c r="CE4">
-        <v>0.003260313017418026</v>
+        <v>0.003260313017417915</v>
       </c>
       <c r="CF4">
-        <v>0.9176496491151052</v>
+        <v>0.9176496491151053</v>
       </c>
       <c r="CG4">
-        <v>0.9200524380330758</v>
+        <v>0.9200524380330757</v>
       </c>
       <c r="CH4">
         <v>-0.4315871054963381</v>
@@ -9685,22 +9675,22 @@
         <v>3.249041145856651</v>
       </c>
       <c r="JA4">
-        <v>6.09132555757542</v>
+        <v>6.091325557575422</v>
       </c>
       <c r="JB4">
-        <v>0.2552933011465749</v>
+        <v>0.2552933011465718</v>
       </c>
       <c r="JC4">
-        <v>5.855211771907142</v>
+        <v>5.855211771907148</v>
       </c>
       <c r="JD4">
         <v>6.315730368485139</v>
       </c>
       <c r="JE4">
-        <v>0.4605185965779963</v>
+        <v>0.460518596577991</v>
       </c>
       <c r="JF4">
-        <v>5.855211771907142</v>
+        <v>5.855211771907148</v>
       </c>
       <c r="JG4">
         <v>6.315730368485139</v>
@@ -9729,23 +9719,17 @@
       <c r="JO4">
         <v>0.07979482920377551</v>
       </c>
-      <c r="JP4">
-        <v>0.1123848415555819</v>
-      </c>
       <c r="JQ4">
-        <v>0</v>
+        <v>5.020508817964519E-05</v>
       </c>
       <c r="JR4">
         <v>0.1853500878363744</v>
       </c>
       <c r="JS4">
-        <v>0.1853500878363744</v>
+        <v>0.1852998827481948</v>
       </c>
       <c r="JT4">
         <v>0.1853500878363744</v>
-      </c>
-      <c r="JU4">
-        <v>0</v>
       </c>
       <c r="JV4">
         <v>0.01198000454128919</v>
